--- a/biology/Zoologie/Cantharis_rustica/Cantharis_rustica.xlsx
+++ b/biology/Zoologie/Cantharis_rustica/Cantharis_rustica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Moine
 Cantharis rustica, le moine, est une espèce de coléoptères de la famille des cantharidés.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il possède des élytres mous, peu striés et couverts de poils. Ses fémurs sont rouges et son pronotum, rouge-orangé avec une tache noire.
 Il se différencie de Cantharis fusca par sa tache pronotale centrale et ses fémurs bicolores (noir et rouge).
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Abondant en Europe, de la France à la Russie.
 </t>
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Clairières forestières, prairies et lisières.
 </t>
@@ -606,9 +624,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cantharis rustica visite souvent les fleurs et est surtout attiré par les apiacées (ombellifères) bien qu'il s'agisse d'un insecte carnivore. Il se nourrit d'autres insectes floricoles[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cantharis rustica visite souvent les fleurs et est surtout attiré par les apiacées (ombellifères) bien qu'il s'agisse d'un insecte carnivore. Il se nourrit d'autres insectes floricoles.
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Cycle de vie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Visible de mai à juillet[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Visible de mai à juillet.
 </t>
         </is>
       </c>
